--- a/模板.xlsx
+++ b/模板.xlsx
@@ -26,15 +26,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
+    <t>#id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>#uint</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +120,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -128,6 +128,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -413,14 +419,17 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="20.6328125" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -433,8 +442,8 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
+      <c r="A2" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -448,7 +457,7 @@
     </row>
     <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
